--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050A2B3-22AC-46CE-9AF2-3C3222463BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5E10E-2AB9-4567-8AE8-B45DE8550B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +42,22 @@
   </si>
   <si>
     <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -571,4 +588,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D64A1ED-260C-4C77-8F88-8188C9C3C7DC}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5E10E-2AB9-4567-8AE8-B45DE8550B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A26D810-B9DC-495A-A78E-2D2DF6C53A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,43 +600,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D64A1ED-260C-4C77-8F88-8188C9C3C7DC}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>35</v>
       </c>
     </row>
